--- a/biology/Botanique/Kings_Park_(Australie-Occidentale)/Kings_Park_(Australie-Occidentale).xlsx
+++ b/biology/Botanique/Kings_Park_(Australie-Occidentale)/Kings_Park_(Australie-Occidentale).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kings Park est un parc public d'Australie-Occidentale, situé au centre de Perth, à l'ouest du district financier de la ville. Fondé en 1895, il comporte des pelouses, des jardins botaniques et un peu de bush sur le mont Eliza (en). Sa superficie est de 4 km2.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Inauguré le 10 août 1895, le parc s'appelait à l'origine Perth Park et a été rebaptisé King's Park en 1901 (l'apostrophe a été supprimée par la suite) pour marquer l'accession au trône du roi Édouard VII et la visite à Perth du prince George et de la princesse Mary[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inauguré le 10 août 1895, le parc s'appelait à l'origine Perth Park et a été rebaptisé King's Park en 1901 (l'apostrophe a été supprimée par la suite) pour marquer l'accession au trône du roi Édouard VII et la visite à Perth du prince George et de la princesse Mary.
 </t>
         </is>
       </c>
